--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/JOR_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/JOR_AdminBoundaries_TabularData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin1" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,49 +16,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
-    <t>admin0Name_en</t>
-  </si>
-  <si>
-    <t>admin0Name_ar</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>admin1Name_en</t>
-  </si>
-  <si>
-    <t>admin1Name_ar</t>
-  </si>
-  <si>
-    <t>admin1Pcode</t>
-  </si>
-  <si>
-    <t>admin1RefName</t>
-  </si>
-  <si>
-    <t>admin1AltName1_en</t>
-  </si>
-  <si>
-    <t>admin1AltName2_en</t>
-  </si>
-  <si>
-    <t>admin1AltName1_ar</t>
-  </si>
-  <si>
-    <t>admin1AltName2_ar</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_EN</t>
+  </si>
+  <si>
+    <t>ADM0_AR</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_EN</t>
+  </si>
+  <si>
+    <t>ADM1_AR</t>
+  </si>
+  <si>
+    <t>ADM1_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_REF</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_AR</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_AR</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -509,17 +509,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
